--- a/test.xlsx
+++ b/test.xlsx
@@ -101,7 +101,7 @@
     <t>بله</t>
   </si>
   <si>
-    <t>32c9b5ca70e7</t>
+    <t>8ef070957d45</t>
   </si>
   <si>
     <t>exLEv4</t>
@@ -113,7 +113,7 @@
     <t>گردنبند طلا 18 عیار زنانه طرح پروانه کد 3344 1.3 گرم گارانتی سلامت فیزیکی کالا 1 ماه</t>
   </si>
   <si>
-    <t>43cb5f9ea465</t>
+    <t>d4f814d3aefc</t>
   </si>
   <si>
     <t>za254K</t>
@@ -122,7 +122,7 @@
     <t>گردنبند طلا 18 عیار زنانه کد 10005 1.330 گرم گارانتی سلامت فیزیکی کالا 1 ماه</t>
   </si>
   <si>
-    <t>e68a3420902a</t>
+    <t>1b1b00b52c7b</t>
   </si>
   <si>
     <t>a8bOMv</t>
@@ -131,7 +131,7 @@
     <t>گردنبند طلا 18 عیار زنانه ستاره 3 بعدی کد 10007 1.4 گرم گارانتی سلامت فیزیکی کالا 1 ماه</t>
   </si>
   <si>
-    <t>c0dd23d26dd3</t>
+    <t>9d3aa976da13</t>
   </si>
   <si>
     <t>Z4bQR3</t>
@@ -140,7 +140,7 @@
     <t>گردنبند طلا 18 عیار زنانه هرمس قلب مدل مینا کاری کد 10003 1.16 گرم گارانتی سلامت فیزیکی کالا 1 ماه</t>
   </si>
   <si>
-    <t>595c81fad2eb</t>
+    <t>233a186112a6</t>
   </si>
   <si>
     <t>b1byEJ</t>
@@ -149,7 +149,7 @@
     <t>گردنبند طلا 18 عیار زنانه مدل 3 پروانه کد 10006 1.49 گرم گارانتی سلامت فیزیکی کالا 1 ماه</t>
   </si>
   <si>
-    <t>e94ad8e4fd8c</t>
+    <t>2097bf7bc44f</t>
   </si>
   <si>
     <t>dJbV8l</t>
@@ -158,7 +158,7 @@
     <t>گردنبند طلا 18 عیار هرمس مدل قلب 3 بعدی کد 10004 0.87 گرم گارانتی سلامت فیزیکی کالا 1 ماه</t>
   </si>
   <si>
-    <t>6f875a013289</t>
+    <t>a8ef14f47081</t>
   </si>
   <si>
     <t>X9brx7</t>
@@ -167,7 +167,7 @@
     <t>گردنبند طلا 18 عیار زنانه گل ونکلیف زنجیر پولکی کد 10001 0.98 گرم گارانتی سلامت فیزیکی کالا 1 ماه</t>
   </si>
   <si>
-    <t>b6b4383e1e34</t>
+    <t>4f548dbcff86</t>
   </si>
   <si>
     <t>راهنمای  به روز رسانی دسته ای</t>
@@ -423,10 +423,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="5">
-        <v>11996964</v>
+        <v>12098005</v>
       </c>
       <c r="J2" s="4">
-        <v>11996964</v>
+        <v>12098005</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>27</v>
@@ -478,10 +478,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="5">
-        <v>12192037</v>
+        <v>12306591</v>
       </c>
       <c r="J3" s="4">
-        <v>12192037</v>
+        <v>12306591</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>27</v>
@@ -533,10 +533,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="5">
-        <v>12872540</v>
+        <v>13017389</v>
       </c>
       <c r="J4" s="4">
-        <v>12872540</v>
+        <v>13017389</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>27</v>
@@ -588,10 +588,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="5">
-        <v>13129886</v>
+        <v>13253252</v>
       </c>
       <c r="J5" s="4">
-        <v>13129886</v>
+        <v>13253252</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>27</v>
@@ -643,10 +643,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="5">
-        <v>11401243</v>
+        <v>11539635</v>
       </c>
       <c r="J6" s="4">
-        <v>11401243</v>
+        <v>11539635</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>27</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <v>13973950</v>
+        <v>14105247</v>
       </c>
       <c r="J7" s="4">
-        <v>13973950</v>
+        <v>14105247</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>27</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <v>8420383</v>
+        <v>8515134</v>
       </c>
       <c r="J8" s="4">
-        <v>8420383</v>
+        <v>8515134</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>27</v>
@@ -808,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="5">
-        <v>10073249</v>
+        <v>10220728</v>
       </c>
       <c r="J9" s="4">
-        <v>10073249</v>
+        <v>10220728</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>27</v>
